--- a/Healthcare/Medtronic.xlsx
+++ b/Healthcare/Medtronic.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85693D2D-88B6-F54D-BB7A-9AED025C44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134FAABC-0C8B-5C47-AE53-BD3969507EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2520,11 +2520,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>114.31</v>
+    <v>106.06</v>
     <v>75.765000000000001</v>
-    <v>0.71930000000000005</v>
-    <v>3.22</v>
-    <v>3.9437E-2</v>
+    <v>0.71879999999999999</v>
+    <v>0.31</v>
+    <v>3.4820000000000003E-3</v>
+    <v>0.31</v>
+    <v>3.4699999999999996E-3</v>
     <v>USD</v>
     <v>Medtronic plc is a global healthcare technology company. The Company develops, manufactures, and markets its medical devices and technologies to hospitals, physicians, clinicians, and patients. Its operating segments include Cardiovascular, Medical Surgical, Neuroscience and Diabetes. Cardiovascular products include pacemakers, insertable cardiac monitors, and cardiac resynchronization therapy devices. Medical Surgical products include patient care from diagnosis to recovery, with a focus on diseases of the gastrointestinal tract, lungs, pelvic region, kidneys, obesity, and preventable complications. Neuroscience products include various spinal implants, bone graft substitutes, biologic products, image-guided surgery and intra-operative imaging systems. Diabetes products include insulin pumps, continuous glucose monitoring (CGM) systems, consumables, and smart insulin pen systems. It also provides PROPEL and SINUVA. The Company is focused on cardiac ablation portfolio.</v>
     <v>95000</v>
@@ -2532,24 +2534,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>20 On Hatch, Hatch Street Lower, DUBLIN, DUBLIN IE</v>
-    <v>85.33</v>
+    <v>89.87</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45035.998320890627</v>
+    <v>45065.987809617967</v>
     <v>0</v>
-    <v>81.650000000000006</v>
-    <v>112913084880</v>
+    <v>89</v>
+    <v>118846800000</v>
     <v>MEDTRONIC PUBLIC LIMITED COMPANY</v>
     <v>MEDTRONIC PUBLIC LIMITED COMPANY</v>
-    <v>81.849999999999994</v>
-    <v>27.901299999999999</v>
-    <v>81.650000000000006</v>
-    <v>84.87</v>
+    <v>89.19</v>
+    <v>29.367599999999999</v>
+    <v>89.02</v>
+    <v>89.33</v>
+    <v>89.64</v>
     <v>1330424000</v>
     <v>MDT</v>
     <v>MEDTRONIC PUBLIC LIMITED COMPANY (XNYS:MDT)</v>
-    <v>8988811</v>
-    <v>5456082</v>
+    <v>6819703</v>
+    <v>6030328</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2581,6 +2584,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2601,6 +2606,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2617,7 +2623,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2628,13 +2634,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2700,13 +2709,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2751,6 +2766,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2758,6 +2776,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3119,10 +3140,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO91" sqref="AO91"/>
+      <selection pane="bottomRight" activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5290,15 +5311,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>3.5635007536451431</v>
+        <v>3.7507669002082937</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>22.407835856320698</v>
+        <v>23.585393927366542</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>18.888103860823019</v>
+        <v>19.88069588491134</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14726,7 +14747,7 @@
       </c>
       <c r="AT95" s="38" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.71930000000000005</v>
+        <v>0.71879999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14971,7 +14992,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>7.1915865000000009E-2</v>
+        <v>7.1894340000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15337,7 +15358,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>0.17597980735792182</v>
+        <v>0.16867560897812547</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15460,7 +15481,7 @@
       </c>
       <c r="AT101" s="39" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>112913084880</v>
+        <v>118846800000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15583,7 +15604,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.82402019264207815</v>
+        <v>0.8313243910218745</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15706,7 +15727,7 @@
       </c>
       <c r="AT103" s="40">
         <f>AT99+AT101</f>
-        <v>137027084880</v>
+        <v>142960800000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15989,7 +16010,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>6.2962258350735323E-2</v>
+        <v>6.3315991498446259E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16183,7 +16204,7 @@
       <c r="AP107" s="42"/>
       <c r="AQ107" s="45">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>258903241884.20056</v>
+        <v>187116971538.14783</v>
       </c>
       <c r="AR107" s="46" t="s">
         <v>148</v>
@@ -16192,7 +16213,7 @@
         <v>149</v>
       </c>
       <c r="AT107" s="48">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16214,7 +16235,7 @@
       </c>
       <c r="AQ108" s="45">
         <f>AQ107+AQ106</f>
-        <v>265897946558.0256</v>
+        <v>194111676211.97287</v>
       </c>
       <c r="AR108" s="46" t="s">
         <v>144</v>
@@ -16224,7 +16245,7 @@
       </c>
       <c r="AT108" s="50">
         <f>AT105</f>
-        <v>6.2962258350735323E-2</v>
+        <v>6.3315991498446259E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16239,7 +16260,7 @@
       </c>
       <c r="AN110" s="39">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>218157233789.76746</v>
+        <v>165001694110.01822</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16266,7 +16287,7 @@
       </c>
       <c r="AN113" s="39">
         <f>AN110+AN111-AN112</f>
-        <v>204616233789.76746</v>
+        <v>151460694110.01822</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16284,7 +16305,7 @@
       </c>
       <c r="AN115" s="54">
         <f>AN113/AN114</f>
-        <v>155.92983510497024</v>
+        <v>115.42212765838006</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16293,7 +16314,7 @@
       </c>
       <c r="AN116" s="55" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>84.87</v>
+        <v>89.33</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16302,7 +16323,7 @@
       </c>
       <c r="AN117" s="57">
         <f>AN115/AN116-1</f>
-        <v>0.83727860380546981</v>
+        <v>0.29208695464435319</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
